--- a/medicine/Mort/Décès_en_1920/Décès_en_1920.xlsx
+++ b/medicine/Mort/Décès_en_1920/Décès_en_1920.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1920</t>
+          <t>Décès_en_1920</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Décès
@@ -508,7 +520,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1920</t>
+          <t>Décès_en_1920</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -526,7 +538,9 @@
           <t>Janvier</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1er janvier : Nicolas Sicard, peintre français (° 6 janvier 1846).
 2 janvier : Paul Adam, écrivain français (° 6 décembre 1862).
@@ -549,7 +563,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1920</t>
+          <t>Décès_en_1920</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -567,7 +581,9 @@
           <t>Février</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1er février : Jāzeps Grosvalds peintre letton (° 24 avril 1891).
 4 février : Modest Sosenko, peintre et artiste monumental ausro-hongrois puis ukrainien (° 28 avril 1875).
@@ -590,7 +606,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1920</t>
+          <t>Décès_en_1920</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -608,7 +624,9 @@
           <t>Mars</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1er mars : William A. Stone, homme politique américain (° 18 avril 1846).
 3 mars :
@@ -634,7 +652,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1920</t>
+          <t>Décès_en_1920</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -652,7 +670,9 @@
           <t>Avril</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>10 avril : Amanda Kerfstedt, femme de lettres suédoise (° 5 juin 1920).
 11 avril : Ferdinand Roybet, peintre et graveur français (° 12 avril 1840),
@@ -667,7 +687,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1920</t>
+          <t>Décès_en_1920</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -685,7 +705,9 @@
           <t>Mai</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>10 mai : Max Seliger, peintre allemand (° 12 mai 1865).
 11 mai : Bertha Schrader, peintre et lithographe allemande (° 11 juin 1845).
@@ -701,7 +723,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1920</t>
+          <t>Décès_en_1920</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -719,7 +741,9 @@
           <t>Juin</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>6 juin : James Dunsmuir, premier ministre de la Colombie-Britannique (° 8 juillet 1851).
 7 juin : Emilio Boggio, peintre et aquarelliste impressionniste vénézuélien (° 12 mai 1857).
@@ -741,7 +765,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1920</t>
+          <t>Décès_en_1920</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -759,7 +783,9 @@
           <t>Juillet</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>4 juillet : Malla (Agustín García Díaz), matador espagnol (° 5 mai 1897).
 5 juillet : Max Klinger, peintre, sculpteur et graphiste symboliste allemand (° 18 février 1857).
@@ -776,7 +802,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1920</t>
+          <t>Décès_en_1920</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -794,7 +820,9 @@
           <t>Août</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>3 août : Peeter Süda, compositeur estonien (° 30 janvier 1883).
 4 août : C. G. Finch-Davies, soldat, ornithologue et peintre britannique puis sud-africain (° 24 mai 1875).
@@ -819,7 +847,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1920</t>
+          <t>Décès_en_1920</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -837,7 +865,9 @@
           <t>Septembre</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>1er septembre :
 John Sebastian Helmcken, médecin de Colombie-Britannique (° 5 juin 1824).
@@ -861,7 +891,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1920</t>
+          <t>Décès_en_1920</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -879,7 +909,9 @@
           <t>Octobre</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>2 octobre :  Max Bruch, compositeur allemand (° 6 janvier 1838).
 10 octobre : Meri Te Tai Mangakāhia, suffragette néo-zélandaise (° 22 mai 1868).
@@ -898,7 +930,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1920</t>
+          <t>Décès_en_1920</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -916,7 +948,9 @@
           <t>Novembre</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>8 novembre : Abraham Kuyper, théologien et homme politique néerlandais (° 29 octobre 1837).
 9 novembre : Pietro Scoppetta, peintre italien (° 15 février 1863).
@@ -938,7 +972,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1920</t>
+          <t>Décès_en_1920</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -956,7 +990,9 @@
           <t>Décembre</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>2 décembre : Louis-Marie Baader, peintre français (° 20 juin 1828).
 7 décembre : René Avigdor, peintre français (° 5 janvier 1867).
@@ -977,7 +1013,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1920</t>
+          <t>Décès_en_1920</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -995,7 +1031,9 @@
           <t>Date inconnue</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t>Laurent Auberge de Garcias, peintre français (° 1er août 1865).
 Pierre Alexandre Belladen, peintre français (° 1871).
